--- a/data/ep.xlsx
+++ b/data/ep.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="74">
   <si>
     <t>Documentos normativos precedentes</t>
   </si>
@@ -240,6 +240,12 @@
   </si>
   <si>
     <t>GERENCIA REGIONAL DE EDUCACIÓN</t>
+  </si>
+  <si>
+    <t>https://busquedas.elperuano.pe/normaslegales/modifican-la-ordenanza-regional-n-085-2010-crgrcusco-que-ordenanza-no-185-2020-crgr-cusco-1933342-1/</t>
+  </si>
+  <si>
+    <t>Descarga</t>
   </si>
 </sst>
 </file>
@@ -557,15 +563,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="4" width="47.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -573,52 +582,55 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -629,52 +641,55 @@
         <v>19</v>
       </c>
       <c r="D2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
       <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>23</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>24</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>25</v>
       </c>
-      <c r="J2" t="s">
-        <v>26</v>
-      </c>
       <c r="K2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" t="s">
         <v>27</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>28</v>
       </c>
-      <c r="M2" t="s">
-        <v>21</v>
-      </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" t="s">
         <v>29</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>30</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>40</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -685,34 +700,37 @@
         <v>34</v>
       </c>
       <c r="D3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" t="s">
         <v>35</v>
       </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
       <c r="F3" t="s">
         <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" t="s">
         <v>36</v>
       </c>
-      <c r="I3" t="s">
-        <v>33</v>
-      </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="K3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" t="s">
         <v>37</v>
       </c>
-      <c r="M3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -720,34 +738,37 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" t="s">
         <v>35</v>
       </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
       <c r="F4" t="s">
         <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="H4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" t="s">
         <v>36</v>
       </c>
-      <c r="I4" t="s">
-        <v>33</v>
-      </c>
       <c r="J4" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="K4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" t="s">
         <v>37</v>
       </c>
-      <c r="M4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -758,34 +779,37 @@
         <v>42</v>
       </c>
       <c r="D5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" t="s">
         <v>43</v>
       </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
       <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
         <v>22</v>
       </c>
-      <c r="G5" t="s">
-        <v>33</v>
-      </c>
       <c r="H5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" t="s">
         <v>44</v>
       </c>
-      <c r="I5" t="s">
-        <v>33</v>
-      </c>
       <c r="J5" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="K5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" t="s">
         <v>45</v>
       </c>
-      <c r="M5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -796,34 +820,37 @@
         <v>47</v>
       </c>
       <c r="D6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" t="s">
         <v>43</v>
       </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
       <c r="F6" t="s">
         <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" t="s">
         <v>44</v>
       </c>
-      <c r="I6" t="s">
-        <v>33</v>
-      </c>
       <c r="J6" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="K6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" t="s">
         <v>48</v>
       </c>
-      <c r="M6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -834,34 +861,37 @@
         <v>34</v>
       </c>
       <c r="D7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" t="s">
         <v>35</v>
       </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
       <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
         <v>22</v>
       </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
       <c r="H7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" t="s">
         <v>24</v>
       </c>
-      <c r="I7" t="s">
-        <v>33</v>
-      </c>
       <c r="J7" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="K7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" t="s">
         <v>51</v>
       </c>
-      <c r="M7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -872,31 +902,34 @@
         <v>54</v>
       </c>
       <c r="D8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" t="s">
         <v>35</v>
       </c>
-      <c r="E8" t="s">
-        <v>26</v>
-      </c>
       <c r="F8" t="s">
         <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s">
         <v>33</v>
       </c>
       <c r="J8" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="K8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" t="s">
         <v>55</v>
       </c>
-      <c r="M8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -906,29 +939,32 @@
       <c r="C9" t="s">
         <v>57</v>
       </c>
-      <c r="E9" t="s">
-        <v>21</v>
+      <c r="D9" t="s">
+        <v>72</v>
       </c>
       <c r="F9" t="s">
         <v>21</v>
       </c>
       <c r="G9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" t="s">
         <v>58</v>
       </c>
-      <c r="I9" t="s">
-        <v>33</v>
-      </c>
       <c r="J9" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="K9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" t="s">
         <v>59</v>
       </c>
-      <c r="M9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -939,31 +975,34 @@
         <v>61</v>
       </c>
       <c r="D10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" t="s">
         <v>62</v>
       </c>
-      <c r="E10" t="s">
-        <v>21</v>
-      </c>
       <c r="F10" t="s">
         <v>21</v>
       </c>
       <c r="G10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" t="s">
         <v>63</v>
       </c>
-      <c r="I10" t="s">
-        <v>33</v>
-      </c>
       <c r="J10" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="K10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" t="s">
         <v>64</v>
       </c>
-      <c r="M10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>65</v>
       </c>
@@ -974,31 +1013,34 @@
         <v>66</v>
       </c>
       <c r="D11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" t="s">
         <v>62</v>
       </c>
-      <c r="E11" t="s">
-        <v>21</v>
-      </c>
       <c r="F11" t="s">
         <v>21</v>
       </c>
       <c r="G11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" t="s">
         <v>67</v>
       </c>
-      <c r="I11" t="s">
-        <v>33</v>
-      </c>
       <c r="J11" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="K11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" t="s">
         <v>68</v>
       </c>
-      <c r="M11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>69</v>
       </c>
@@ -1009,30 +1051,33 @@
         <v>70</v>
       </c>
       <c r="D12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" t="s">
         <v>62</v>
       </c>
-      <c r="E12" t="s">
-        <v>21</v>
-      </c>
       <c r="F12" t="s">
         <v>21</v>
       </c>
-      <c r="G12">
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12">
         <v>2020</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>44</v>
       </c>
-      <c r="I12" t="s">
-        <v>33</v>
-      </c>
       <c r="J12" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="K12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" t="s">
         <v>71</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>33</v>
       </c>
     </row>
